--- a/app/indikatorTPB.xlsx
+++ b/app/indikatorTPB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="552">
   <si>
     <t xml:space="preserve">Meningkatnya cakupan Jaminan Kesehatan Nasional (JKN) pada tahun 2019 minimal 95% (2015:60%).  </t>
   </si>
@@ -1677,6 +1677,9 @@
   </si>
   <si>
     <t>kilometer</t>
+  </si>
+  <si>
+    <t>Akses Layanan Air Minum</t>
   </si>
 </sst>
 </file>
@@ -2042,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3290,7 +3293,12 @@
       <c r="A99" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C99" s="1"/>
+      <c r="B99" t="s">
+        <v>551</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="D99" t="s">
         <v>419</v>
       </c>

--- a/app/indikatorTPB.xlsx
+++ b/app/indikatorTPB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="566">
   <si>
     <t xml:space="preserve">Meningkatnya cakupan Jaminan Kesehatan Nasional (JKN) pada tahun 2019 minimal 95% (2015:60%).  </t>
   </si>
@@ -443,9 +443,6 @@
     <t>XVI.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Menguatkan masyarakat yang inklusif dan damai untuk pembangunan berkelanjutan, menyediakan akses keadilan untuk semua, dan membangun kelembagaan yang efektif, akuntabel, dan inklusif di semua tingkatan. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Menguatkan sarana pelaksanaan dan merevitalisasi kemitraan global untuk pembangunan berkelanjutan. </t>
   </si>
   <si>
@@ -1277,12 +1274,6 @@
     <t>XVII.9.2</t>
   </si>
   <si>
-    <t>XVII.10.</t>
-  </si>
-  <si>
-    <t>XVII.11.</t>
-  </si>
-  <si>
     <t>Meningkatnya akses terhadap layanan air minum dan berkelanjutan pada tahun 2019 menjadi 100% (2015: 70,9%).</t>
   </si>
   <si>
@@ -1361,12 +1352,6 @@
     <t xml:space="preserve">Bauran energi terbarukan mencapai 10-16% pada tahun 2019. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Intensitas energi primer (penurunan 1% per tahun) menjadi 463,2 SBM pada tahun 2019.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tingkat kemiskinan pada tahun 2019 menjadi 7-8% dari jumlah penduduk (2015:11,13%). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tersusunnya konsep kebijakan rencana operasional pola konsumsi dan produksi berkelanjutan dan pengembangan sistem pendukungnya berupa kolaborasi tematik quick wins program hingga tahun 2019. </t>
   </si>
   <si>
@@ -1529,36 +1514,9 @@
     <t xml:space="preserve">Menjamin akses energi yang terjangkau, andal, berkelanjutan, dan modern untuk semua. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Meningkatnya Produk Domestik Bruto (PDB) per kapita per tahun menjadi lebih dari Rp 50,000 juta pada tahun 2019 (2015: Rp 45,180 juta). </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pertumbuhan PDB riil per orang yang bekerja meningkat hingga tahun 2019. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Persentase tenaga kerja formal mencapai 51% pada tahun 2019 (2015: 42,2%). </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Akses Layanan Keuangan formal Usaha Mikro, Kecil dan Menengah (UMKM) 25% pada tahun 2019 (2014: 17,8%). </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terciptanya kesempatan kerja sebesar 10 juta selama 5 tahun. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Meningkatnya keterampilan pekerja rentan agar  dapat memasuki pasar tenaga kerja. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Menguatnya sistem perlindungan anak termasuk upaya melindungi anak dari tindak kekerasan, eksploitasi, penelantaran, dan perlakuan salah lainnya. </t>
-  </si>
-  <si>
     <t>Terciptanya lingkungan kerja yang aman dan sehat.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Meningkatnya kontribusi pariwisata menjadi 8% terhadap PDB pada tahun 2019 (2014: 4,2%).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Meningkatnya jumlah wisatawan mancanegara menjadi 20 juta pada tahun 2019 (2014: 9 juta). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Terbangunnya jalan tol sepanjang 1.000 km pada tahun 2019 (2014: 820 km).  </t>
   </si>
   <si>
@@ -1586,9 +1544,6 @@
     <t xml:space="preserve">Koefisien Gini pada tahun 2019 menjadi 0,36 (2014: 0,41).  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jumlah daerah tertinggal yang terentaskan sebanyak 80 kabupaten pada tahun 2019. </t>
-  </si>
-  <si>
     <t>Berkurangnya Desa Tertinggal sebanyak 5.000 desa.</t>
   </si>
   <si>
@@ -1670,16 +1625,103 @@
     <t xml:space="preserve">Meningkatnya ketersediaan dan kualitas data dan informasi pembangunan yang akurat dan tepat waktu, serta pemanfaatan data dan informasi untuk perencanaan dan evaluasi hasil-hasil pembangunan. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Meningkatnya ketersediaan dan kualitas data dan informasi pembangunan yang akurat dan tepat waktu, serta pemanfaatan data dan informasi untuk perencanaan dan evaluasi hasil-hasil pembangunan.</t>
-  </si>
-  <si>
     <t>kg/Kapita/Tahun</t>
   </si>
   <si>
     <t>kilometer</t>
   </si>
   <si>
-    <t>Akses Layanan Air Minum</t>
+    <t>Kapasitas Prasarana Air Baku</t>
+  </si>
+  <si>
+    <t>m3/detik</t>
+  </si>
+  <si>
+    <t>Akses Listrik</t>
+  </si>
+  <si>
+    <t>Konsumsi Listrik per Kapita</t>
+  </si>
+  <si>
+    <t>KWh/Kapita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningkatnya Produk Domestik Bruto (PDB) per kapita per tahun menjadi lebih dari Rp 50,000 juta pada tahun 2019 (2015: Rp 45,180 juta). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persentase tenaga kerja formal mencapai 51% pada tahun 2019 (2015: 42,2%). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akses Layanan Keuangan formal Usaha Mikro, Kecil dan Menengah (UMKM) 25% pada tahun 2019 (2014: 17,8%). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terciptanya kesempatan kerja sebesar 10 juta selama 5 tahun. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningkatnya keterampilan pekerja rentan agar  dapat memasuki pasar tenaga kerja. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menguatnya sistem perlindungan anak termasuk upaya melindungi anak dari tindak kekerasan, eksploitasi, penelantaran, dan perlakuan salah lainnya. </t>
+  </si>
+  <si>
+    <t>Meningkatnya kontribusi pariwisata menjadi 8% terhadap PDB pada tahun 2019 (2014: 4,2%).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningkatnya jumlah wisatawan mancanegara menjadi 20 juta pada tahun 2019 (2014: 9 juta). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tingkat kemiskinan pada tahun 2019 menjadi 7-8% dari jumlah penduduk (2015:11,13%). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah daerah tertinggal yang terentaskan sebanyak 80 kabupaten pada tahun 2019. </t>
+  </si>
+  <si>
+    <t>Intensitas energi primer (penurunan 1% per tahun) menjadi 463,2 SBM pada tahun 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertumbuhan PDB riil per orang yang bekerja meningkat hingga tahun 2019. </t>
+  </si>
+  <si>
+    <t>Jumlah Layanan Keuangan Formal Usaha Mikro</t>
+  </si>
+  <si>
+    <t>Jumlah Wisatawan Desa</t>
+  </si>
+  <si>
+    <t>Akses Hunian Layak</t>
+  </si>
+  <si>
+    <t>Produksi Perikanan</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>Luas Kawasan Konservasi Perairan</t>
+  </si>
+  <si>
+    <t>Luas Kawasan Konservasi Terdegradasi yang Dipulihkan Ekosistemnya</t>
+  </si>
+  <si>
+    <t>Usaha Pemanfaatan Hasil Hutan Kayu Restorasi Ekosistem</t>
+  </si>
+  <si>
+    <t>Luasan Lahan Kritis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menguatkan masyarakat yang inklusif dan damai untuk pembangunan berkelanjutan, menyediakan akses keadilan untuk semua, dan membangun kelembagaan yang efektif, akuntabel, dan inklusif di semua tingkatan. </t>
+  </si>
+  <si>
+    <t>XVII.10.1</t>
+  </si>
+  <si>
+    <t>XVII.11.1</t>
+  </si>
+  <si>
+    <t>XVII.11.2</t>
+  </si>
+  <si>
+    <t>XVII.11.3</t>
   </si>
 </sst>
 </file>
@@ -2043,15 +2085,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="62.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="200.42578125" customWidth="1"/>
@@ -2062,13 +2104,13 @@
         <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,10 +2127,10 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
@@ -2099,10 +2141,10 @@
         <v>115</v>
       </c>
       <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D4" t="s">
         <v>114</v>
@@ -2113,10 +2155,10 @@
         <v>113</v>
       </c>
       <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D5" t="s">
         <v>112</v>
@@ -2127,10 +2169,10 @@
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
         <v>110</v>
@@ -2141,10 +2183,10 @@
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
@@ -2155,10 +2197,10 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -2169,10 +2211,10 @@
         <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
         <v>104</v>
@@ -2183,10 +2225,10 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
         <v>102</v>
@@ -2197,10 +2239,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
@@ -2211,10 +2253,10 @@
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
         <v>98</v>
@@ -2225,10 +2267,10 @@
         <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
         <v>96</v>
@@ -2239,10 +2281,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -2253,10 +2295,10 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
         <v>92</v>
@@ -2267,10 +2309,10 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
         <v>90</v>
@@ -2281,10 +2323,10 @@
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
@@ -2295,10 +2337,10 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
         <v>86</v>
@@ -2367,10 +2409,10 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
@@ -2381,10 +2423,10 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
         <v>72</v>
@@ -2395,10 +2437,10 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
@@ -2409,10 +2451,10 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
         <v>68</v>
@@ -2423,10 +2465,10 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
         <v>66</v>
@@ -2437,10 +2479,10 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2451,10 +2493,10 @@
         <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="D32" t="s">
         <v>62</v>
@@ -2465,10 +2507,10 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
@@ -2479,10 +2521,10 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="D34" t="s">
         <v>58</v>
@@ -2493,10 +2535,10 @@
         <v>57</v>
       </c>
       <c r="B35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D35" t="s">
         <v>56</v>
@@ -2507,10 +2549,10 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
@@ -2521,10 +2563,10 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
@@ -2566,10 +2608,10 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
         <v>46</v>
@@ -2580,10 +2622,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
@@ -2594,10 +2636,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
@@ -2608,10 +2650,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" t="s">
         <v>40</v>
@@ -2622,10 +2664,10 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
         <v>38</v>
@@ -2636,10 +2678,10 @@
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -2650,10 +2692,10 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
         <v>34</v>
@@ -2664,10 +2706,10 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" t="s">
         <v>32</v>
@@ -2678,10 +2720,10 @@
         <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
         <v>30</v>
@@ -2692,10 +2734,10 @@
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
@@ -2706,10 +2748,10 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" t="s">
         <v>26</v>
@@ -2720,10 +2762,10 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -2734,10 +2776,10 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -2748,10 +2790,10 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="D55" t="s">
         <v>20</v>
@@ -2762,10 +2804,10 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -2776,10 +2818,10 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -2799,10 +2841,10 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2813,10 +2855,10 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -2827,10 +2869,10 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -2841,10 +2883,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -2855,10 +2897,10 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -2869,10 +2911,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
@@ -2883,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -2907,221 +2949,221 @@
     </row>
     <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,146 +3176,146 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" t="s">
         <v>273</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D88" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3282,7 +3324,7 @@
     </row>
     <row r="98" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" t="s">
@@ -3291,205 +3333,205 @@
     </row>
     <row r="99" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B99" t="s">
-        <v>551</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C99" s="1"/>
       <c r="D99" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="B100" t="s">
+        <v>535</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>536</v>
+      </c>
       <c r="D100" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3502,52 +3544,62 @@
       </c>
       <c r="C122" s="1"/>
       <c r="D122" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C123" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="B123" t="s">
+        <v>537</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="D123" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C124" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="B124" t="s">
+        <v>538</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="D124" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" t="s">
-        <v>445</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,7 +3608,7 @@
     </row>
     <row r="129" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" t="s">
@@ -3565,92 +3617,102 @@
     </row>
     <row r="130" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C133" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="B133" t="s">
+        <v>552</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="D133" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" t="s">
-        <v>505</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" t="s">
-        <v>507</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C139" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="B139" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="D139" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3659,7 +3721,7 @@
     </row>
     <row r="141" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" t="s">
@@ -3668,74 +3730,74 @@
     </row>
     <row r="142" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3744,7 +3806,7 @@
     </row>
     <row r="151" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" t="s">
@@ -3753,92 +3815,92 @@
     </row>
     <row r="152" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" t="s">
-        <v>446</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3847,155 +3909,160 @@
     </row>
     <row r="163" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C164" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="B164" t="s">
+        <v>554</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="D164" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4004,7 +4071,7 @@
     </row>
     <row r="181" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" t="s">
@@ -4013,47 +4080,47 @@
     </row>
     <row r="182" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,7 +4129,7 @@
     </row>
     <row r="188" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" t="s">
@@ -4071,20 +4138,20 @@
     </row>
     <row r="189" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4093,7 +4160,7 @@
     </row>
     <row r="192" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" t="s">
@@ -4102,38 +4169,48 @@
     </row>
     <row r="193" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C194" s="1"/>
+        <v>371</v>
+      </c>
+      <c r="B194" t="s">
+        <v>555</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="D194" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C195" s="1"/>
+        <v>372</v>
+      </c>
+      <c r="B195" t="s">
+        <v>557</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D195" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4142,7 +4219,7 @@
     </row>
     <row r="198" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" t="s">
@@ -4151,74 +4228,89 @@
     </row>
     <row r="199" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C200" s="1"/>
+        <v>375</v>
+      </c>
+      <c r="B200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D200" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C201" s="1"/>
+        <v>376</v>
+      </c>
+      <c r="B201" t="s">
+        <v>559</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D201" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C202" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="B202" t="s">
+        <v>560</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D202" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4231,196 +4323,196 @@
       </c>
       <c r="C208" s="1"/>
       <c r="D208" t="s">
-        <v>139</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4429,173 +4521,164 @@
     </row>
     <row r="231" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>417</v>
+        <v>562</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>418</v>
+        <v>563</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>418</v>
+        <v>564</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>418</v>
+        <v>565</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C249" s="1"/>
-      <c r="D249" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
